--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationrequest-dosageinstruction-periodofuse.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationrequest-dosageinstruction-periodofuse.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-16</t>
+    <t>2022-07-31</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationrequest-dosageinstruction-periodofuse.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationrequest-dosageinstruction-periodofuse.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0a</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationrequest-dosageinstruction-periodofuse.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationrequest-dosageinstruction-periodofuse.xlsx
@@ -258,7 +258,7 @@
     <t>投与期間の開始日を明示するための拡張</t>
   </si>
   <si>
-    <t>MedcationRequestの投与期間の開始日を明示するための拡張</t>
+    <t>MedicationRequestの投与期間の開始日を明示するための拡張</t>
   </si>
   <si>
     <t>*</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationrequest-dosageinstruction-periodofuse.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationrequest-dosageinstruction-periodofuse.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-31</t>
+    <t>2022-03-16</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -252,16 +252,13 @@
     <t>0</t>
   </si>
   <si>
-    <t>1</t>
+    <t>*</t>
   </si>
   <si>
     <t>投与期間の開始日を明示するための拡張</t>
   </si>
   <si>
     <t>MedicationRequestの投与期間の開始日を明示するための拡張</t>
-  </si>
-  <si>
-    <t>*</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -273,6 +270,9 @@
   </si>
   <si>
     <t>Extension.id</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
   <si>
     <t xml:space="preserve">string
@@ -986,13 +986,13 @@
         <v>78</v>
       </c>
       <c r="AG2" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH2" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="AH2" t="s" s="2">
+      <c r="AI2" t="s" s="2">
         <v>83</v>
-      </c>
-      <c r="AI2" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AJ2" t="s" s="2">
         <v>77</v>
@@ -1000,7 +1000,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -1011,7 +1011,7 @@
         <v>78</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="G3" t="s" s="2">
         <v>77</v>
@@ -1086,7 +1086,7 @@
         <v>78</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>77</v>
@@ -1186,13 +1186,13 @@
         <v>78</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AH4" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>77</v>
@@ -1208,10 +1208,10 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>77</v>
@@ -1285,10 +1285,10 @@
         <v>98</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>77</v>
@@ -1313,7 +1313,7 @@
         <v>78</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>77</v>
@@ -1388,7 +1388,7 @@
         <v>78</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>77</v>
@@ -1413,7 +1413,7 @@
         <v>78</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>77</v>
@@ -1488,7 +1488,7 @@
         <v>78</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>77</v>
@@ -1513,7 +1513,7 @@
         <v>78</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>77</v>
@@ -1590,13 +1590,13 @@
         <v>78</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AJ8" t="s" s="2">
         <v>90</v>
@@ -1612,10 +1612,10 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>77</v>
@@ -1692,7 +1692,7 @@
         <v>78</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>122</v>
@@ -1717,7 +1717,7 @@
         <v>78</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>77</v>
@@ -1796,7 +1796,7 @@
         <v>78</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="AH10" t="s" s="2">
         <v>122</v>
